--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3447.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3447.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.151300410419528</v>
+        <v>1.260865688323975</v>
       </c>
       <c r="B1">
-        <v>2.031414403679243</v>
+        <v>2.242712259292603</v>
       </c>
       <c r="C1">
-        <v>2.701909794587234</v>
+        <v>6.203773021697998</v>
       </c>
       <c r="D1">
-        <v>3.08482698531206</v>
+        <v>1.444786190986633</v>
       </c>
       <c r="E1">
-        <v>3.801804622705959</v>
+        <v>1.350248336791992</v>
       </c>
     </row>
   </sheetData>
